--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saini\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AABE77B-314D-42E4-A3DA-B9F022DBC149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Details" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Employee history at AIIMS" sheetId="3" r:id="rId4"/>
     <sheet name="Summary" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>IPS</t>
   </si>
@@ -117,13 +111,16 @@
   </si>
   <si>
     <t>Chetan Saini</t>
+  </si>
+  <si>
+    <t>ravinder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -756,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -950,21 +947,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" customWidth="1"/>
@@ -977,7 +974,7 @@
     <col min="12" max="12" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,6 +1075,11 @@
       </c>
       <c r="Q2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1086,21 +1088,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1111,28 +1113,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1143,12 +1145,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>IPS</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ravinder</t>
+  </si>
+  <si>
+    <t>singh</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,7 +961,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1080,6 +1083,9 @@
     <row r="3" spans="1:17">
       <c r="C3" t="s">
         <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>IPS</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>singh</t>
+  </si>
+  <si>
+    <t>programmer</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,7 +964,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,6 +1089,9 @@
       </c>
       <c r="D3" t="s">
         <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
